--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,17 +639,17 @@
         <v>10000</v>
       </c>
       <c r="B2" s="10">
-        <v>1403.02</v>
+        <v>1402.79</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>8596.98</v>
+        <v>8597.2099999999991</v>
       </c>
       <c r="F2" s="7">
-        <v>275.44</v>
+        <v>275.67</v>
       </c>
       <c r="G2"/>
     </row>
@@ -695,10 +695,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -723,7 +723,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,7 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="K5" s="7">
-        <v>887.72</v>
+        <v>887.95</v>
       </c>
       <c r="L5" s="7">
         <v>612.28</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>275.44</v>
+        <v>275.67</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>160</v>
+        <v>3261</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>159</v>
+        <v>3260</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="E3" s="7">
-        <v>23.01</v>
+        <v>23.24</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>157</v>
+        <v>3258</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1508,32 +1508,32 @@
         <v>42064</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1402.79</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>96.98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>8596.98</v>
+        <v>0.23</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>155</v>
+        <v>3257</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1542,16 +1542,16 @@
         <v>42064</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1403.02</v>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>96.98</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1559,15 +1559,15 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="10">
-        <v>3596.98</v>
+      <c r="J5" s="9">
+        <v>10000</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>158</v>
+        <v>3259</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>154</v>
+        <v>3255</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,23 +639,23 @@
         <v>10000</v>
       </c>
       <c r="B2" s="10">
-        <v>1402.79</v>
+        <v>1402.05</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>8597.2099999999991</v>
+        <v>8597.9500000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>275.67</v>
+        <v>276.41000000000003</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>563.30999999999995</v>
+        <v>563.33000000000004</v>
       </c>
       <c r="B3" s="7">
         <v>96.98</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>466.33</v>
+        <v>466.35</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="B5" s="7">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -723,7 +723,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="K3" s="7">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="L3" s="7">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>887.95</v>
       </c>
       <c r="L5" s="7">
-        <v>612.28</v>
+        <v>611.54</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>275.67</v>
+        <v>276.41000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -951,13 +951,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>800.1</v>
+        <v>800.09</v>
       </c>
       <c r="G6" s="10">
-        <v>7521.44</v>
+        <v>7521.45</v>
       </c>
       <c r="H6" s="7">
-        <v>87.62</v>
+        <v>87.63</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>813.54</v>
       </c>
       <c r="G7" s="10">
-        <v>6707.9</v>
+        <v>6707.91</v>
       </c>
       <c r="H7" s="7">
         <v>74.180000000000007</v>
@@ -1040,7 +1040,7 @@
         <v>819.35</v>
       </c>
       <c r="G8" s="10">
-        <v>5888.55</v>
+        <v>5888.56</v>
       </c>
       <c r="H8" s="7">
         <v>68.37</v>
@@ -1083,7 +1083,7 @@
         <v>829.64</v>
       </c>
       <c r="G9" s="10">
-        <v>5058.91</v>
+        <v>5058.92</v>
       </c>
       <c r="H9" s="7">
         <v>58.08</v>
@@ -1126,7 +1126,7 @@
         <v>836.16</v>
       </c>
       <c r="G10" s="10">
-        <v>4222.75</v>
+        <v>4222.76</v>
       </c>
       <c r="H10" s="7">
         <v>51.56</v>
@@ -1169,7 +1169,7 @@
         <v>844.68</v>
       </c>
       <c r="G11" s="10">
-        <v>3378.07</v>
+        <v>3378.08</v>
       </c>
       <c r="H11" s="7">
         <v>43.04</v>
@@ -1212,7 +1212,7 @@
         <v>854.4</v>
       </c>
       <c r="G12" s="10">
-        <v>2523.67</v>
+        <v>2523.6799999999998</v>
       </c>
       <c r="H12" s="7">
         <v>33.32</v>
@@ -1255,7 +1255,7 @@
         <v>862</v>
       </c>
       <c r="G13" s="10">
-        <v>1661.67</v>
+        <v>1661.68</v>
       </c>
       <c r="H13" s="7">
         <v>25.72</v>
@@ -1298,7 +1298,7 @@
         <v>871.33</v>
       </c>
       <c r="G14" s="7">
-        <v>790.34</v>
+        <v>790.35</v>
       </c>
       <c r="H14" s="7">
         <v>16.39</v>
@@ -1338,13 +1338,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
-        <v>790.34</v>
+        <v>790.35</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>8.0500000000000007</v>
+        <v>8.06</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>798.39</v>
+        <v>798.41</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>798.39</v>
+        <v>798.41</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>3261</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1443,13 +1443,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="7">
-        <v>87.62</v>
+        <v>87.63</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>87.62</v>
+        <v>87.63</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>3260</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3258</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1514,7 +1514,7 @@
         <v>1500</v>
       </c>
       <c r="F4" s="10">
-        <v>1402.79</v>
+        <v>1402.05</v>
       </c>
       <c r="G4" s="7">
         <v>96.98</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0.23</v>
+        <v>0.97</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3257</v>
+        <v>63</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3259</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1579,7 +1579,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="7">
-        <v>73.97</v>
+        <v>74.709999999999994</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3255</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +267,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -309,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +350,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,10 +762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,12 +783,13 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -786,17 +829,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -821,9 +865,10 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -861,14 +906,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -893,9 +939,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -931,14 +978,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>276.41000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -974,14 +1022,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1017,14 +1066,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1060,14 +1110,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1103,14 +1154,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1146,14 +1198,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1189,14 +1242,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1232,14 +1286,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1275,14 +1330,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1318,14 +1374,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1361,10 +1418,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>798.41</v>
       </c>
     </row>
@@ -1378,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2592-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Newcreateloan2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -132,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,26 +345,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,23 +380,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +617,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -676,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
@@ -693,9 +654,8 @@
       <c r="F2" s="7">
         <v>276.41000000000003</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>563.33000000000004</v>
       </c>
@@ -715,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -735,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.97</v>
       </c>
@@ -764,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
